--- a/src/main/resources/examples/道路扬尘源.xlsx
+++ b/src/main/resources/examples/道路扬尘源.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="28" documentId="11_42D7A38F2062E1A462957E886FEC49623C2E76FE" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0D804F4B-1885-43E9-BF76-C7A6E7F76347}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="11_42D7A38F2062E1A462957E886FEC49623C2E76FE" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{06DD461E-3833-9D47-8025-5CB7A1547FE0}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23240" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="道路扬尘" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>平均车重W（t）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,34 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PM10的最大控制率（%）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM25的最大控制率（%）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>CO的最大控制率（%）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>VOC的最大控制率（%）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>SO2 的最大控制率（%）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOX的最大控制率（%）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>NH3的最大控制率（%）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PM10排放量</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -238,6 +210,50 @@
   </si>
   <si>
     <t>区县编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OC排放量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC排放量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM10的最大控制率</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM25的最大控制率</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO的最大控制率</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOC的最大控制率</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SO2 的最大控制率</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOX的最大控制率</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>NH3的最大控制率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OC的最大控制率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC的最大控制率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -245,7 +261,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +315,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -326,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -341,7 +364,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -688,48 +717,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD8"/>
+  <dimension ref="A1:AH7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="U8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.62890625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="23.62890625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="17.1015625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.3671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.1015625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.83984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.62890625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.3671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="39.9453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="23.89453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.5234375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.68359375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.89453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="22.68359375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.7890625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.7890625" customWidth="1"/>
-    <col min="25" max="25" width="9.5234375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.7890625" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="10.578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="29.15625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.83203125" customWidth="1"/>
+    <col min="27" max="27" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="9.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="29.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="2" customFormat="1" ht="17.7" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:34" s="2" customFormat="1" ht="16">
       <c r="A1" s="5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>17</v>
@@ -756,10 +788,10 @@
         <v>3</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>18</v>
@@ -768,52 +800,64 @@
         <v>21</v>
       </c>
       <c r="P1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="X1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD1" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:34">
       <c r="A2" s="6">
         <v>1602001001</v>
       </c>
@@ -848,16 +892,16 @@
         <v>91</v>
       </c>
       <c r="L2">
+        <v>0.62</v>
+      </c>
+      <c r="M2">
         <v>0.15</v>
-      </c>
-      <c r="M2">
-        <v>0.62</v>
       </c>
       <c r="N2" s="1">
         <v>0.4</v>
       </c>
       <c r="O2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="P2" s="8">
         <v>0</v>
@@ -901,11 +945,23 @@
       <c r="AC2" s="8">
         <v>0</v>
       </c>
-      <c r="AD2" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="AD2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
       <c r="A3" s="6">
         <v>1602001002</v>
       </c>
@@ -940,16 +996,16 @@
         <v>91</v>
       </c>
       <c r="L3">
+        <v>0.62</v>
+      </c>
+      <c r="M3">
         <v>0.15</v>
-      </c>
-      <c r="M3">
-        <v>0.62</v>
       </c>
       <c r="N3" s="1">
         <v>0.64</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="P3" s="8">
         <v>0</v>
@@ -993,11 +1049,23 @@
       <c r="AC3" s="8">
         <v>0</v>
       </c>
-      <c r="AD3" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="AD3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
       <c r="A4" s="6">
         <v>1602001003</v>
       </c>
@@ -1032,16 +1100,16 @@
         <v>91</v>
       </c>
       <c r="L4">
+        <v>0.62</v>
+      </c>
+      <c r="M4">
         <v>0.15</v>
-      </c>
-      <c r="M4">
-        <v>0.62</v>
       </c>
       <c r="N4" s="4">
         <v>1.57</v>
       </c>
       <c r="O4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="P4" s="8">
         <v>0</v>
@@ -1085,11 +1153,23 @@
       <c r="AC4" s="8">
         <v>0</v>
       </c>
-      <c r="AD4" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="AD4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
       <c r="A5" s="6">
         <v>1602001004</v>
       </c>
@@ -1124,16 +1204,16 @@
         <v>91</v>
       </c>
       <c r="L5">
+        <v>0.62</v>
+      </c>
+      <c r="M5">
         <v>0.15</v>
-      </c>
-      <c r="M5">
-        <v>0.62</v>
       </c>
       <c r="N5" s="1">
         <v>0.65</v>
       </c>
       <c r="O5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="P5" s="8">
         <v>0</v>
@@ -1177,11 +1257,23 @@
       <c r="AC5" s="8">
         <v>0</v>
       </c>
-      <c r="AD5" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="AD5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
       <c r="A6" s="6">
         <v>1602001005</v>
       </c>
@@ -1216,16 +1308,16 @@
         <v>91</v>
       </c>
       <c r="L6">
+        <v>0.62</v>
+      </c>
+      <c r="M6">
         <v>0.15</v>
-      </c>
-      <c r="M6">
-        <v>0.62</v>
       </c>
       <c r="N6" s="4">
         <v>0.71550000000000002</v>
       </c>
       <c r="O6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="P6" s="8">
         <v>0</v>
@@ -1248,10 +1340,10 @@
       <c r="V6" s="8">
         <v>0</v>
       </c>
-      <c r="W6" s="8">
-        <v>0</v>
-      </c>
-      <c r="X6" s="8">
+      <c r="W6" s="10">
+        <v>0</v>
+      </c>
+      <c r="X6" s="11">
         <v>0</v>
       </c>
       <c r="Y6" s="8">
@@ -1269,11 +1361,23 @@
       <c r="AC6" s="8">
         <v>0</v>
       </c>
-      <c r="AD6" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="AD6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
       <c r="A7" s="6">
         <v>1602001006</v>
       </c>
@@ -1308,16 +1412,16 @@
         <v>91</v>
       </c>
       <c r="L7">
+        <v>0.62</v>
+      </c>
+      <c r="M7">
         <v>0.15</v>
-      </c>
-      <c r="M7">
-        <v>0.62</v>
       </c>
       <c r="N7" s="1">
         <v>1.83</v>
       </c>
       <c r="O7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="P7" s="8">
         <v>0</v>
@@ -1361,102 +1465,25 @@
       <c r="AC7" s="8">
         <v>0</v>
       </c>
-      <c r="AD7" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A8" s="10">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" s="10">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8" s="10">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>6</v>
-      </c>
-      <c r="G8" s="10">
-        <v>7</v>
-      </c>
-      <c r="H8">
-        <v>8</v>
-      </c>
-      <c r="I8" s="10">
-        <v>9</v>
-      </c>
-      <c r="J8">
-        <v>10</v>
-      </c>
-      <c r="K8" s="10">
-        <v>11</v>
-      </c>
-      <c r="L8">
-        <v>12</v>
-      </c>
-      <c r="M8" s="10">
-        <v>13</v>
-      </c>
-      <c r="N8">
-        <v>14</v>
-      </c>
-      <c r="O8" s="10">
-        <v>15</v>
-      </c>
-      <c r="P8">
-        <v>16</v>
-      </c>
-      <c r="Q8" s="10">
-        <v>17</v>
-      </c>
-      <c r="R8">
-        <v>18</v>
-      </c>
-      <c r="S8" s="10">
-        <v>19</v>
-      </c>
-      <c r="T8">
-        <v>20</v>
-      </c>
-      <c r="U8" s="10">
-        <v>21</v>
-      </c>
-      <c r="V8">
-        <v>22</v>
-      </c>
-      <c r="W8" s="10">
-        <v>23</v>
-      </c>
-      <c r="X8">
-        <v>24</v>
-      </c>
-      <c r="Y8" s="10">
-        <v>25</v>
-      </c>
-      <c r="Z8">
-        <v>26</v>
-      </c>
-      <c r="AA8" s="10">
-        <v>27</v>
-      </c>
-      <c r="AB8">
-        <v>28</v>
-      </c>
-      <c r="AC8" s="10">
-        <v>29</v>
+      <c r="AD7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="C2:Y93">
-    <sortCondition ref="C2:C93"/>
+  <sortState ref="C2:AA92">
+    <sortCondition ref="C2:C92"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1468,223 +1495,223 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1702,7 +1729,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/examples/道路扬尘源.xlsx
+++ b/src/main/resources/examples/道路扬尘源.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22607"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="41" documentId="11_42D7A38F2062E1A462957E886FEC49623C2E76FE" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{06DD461E-3833-9D47-8025-5CB7A1547FE0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73928632-C57B-4D79-9667-EA3B71EA8C0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23240" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="道路扬尘" sheetId="1" r:id="rId1"/>
     <sheet name="导入说明" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">道路扬尘!#REF!</definedName>
@@ -261,7 +260,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -717,43 +716,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH7"/>
+  <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="U8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="37.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.68359375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="23.68359375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="17.15625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.47265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.68359375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.3125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.15625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.83984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.3125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="37.15625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="17.15625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.83203125" customWidth="1"/>
-    <col min="27" max="27" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="9.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.15625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.15625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.15625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.83984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.83984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.83984375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.83984375" customWidth="1"/>
+    <col min="27" max="27" width="9.47265625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.47265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.83984375" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="10.47265625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="9.3125" style="12" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="29.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="2" customFormat="1" ht="16">
+    <row r="1" spans="1:33" s="2" customFormat="1" ht="17.7" x14ac:dyDescent="0.7">
       <c r="A1" s="5" t="s">
         <v>37</v>
       </c>
@@ -853,11 +852,8 @@
       <c r="AG1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AH1" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A2" s="6">
         <v>1602001001</v>
       </c>
@@ -865,7 +861,7 @@
         <v>2013</v>
       </c>
       <c r="C2">
-        <v>650000</v>
+        <v>210102</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>15</v>
@@ -957,11 +953,8 @@
       <c r="AG2" s="8">
         <v>0</v>
       </c>
-      <c r="AH2" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34">
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="6">
         <v>1602001002</v>
       </c>
@@ -969,7 +962,7 @@
         <v>2013</v>
       </c>
       <c r="C3">
-        <v>650100</v>
+        <v>210103</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>15</v>
@@ -1061,11 +1054,8 @@
       <c r="AG3" s="8">
         <v>0</v>
       </c>
-      <c r="AH3" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34">
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" s="6">
         <v>1602001003</v>
       </c>
@@ -1073,7 +1063,7 @@
         <v>2013</v>
       </c>
       <c r="C4">
-        <v>650102</v>
+        <v>210104</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>15</v>
@@ -1165,11 +1155,8 @@
       <c r="AG4" s="8">
         <v>0</v>
       </c>
-      <c r="AH4" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34">
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" s="6">
         <v>1602001004</v>
       </c>
@@ -1177,7 +1164,7 @@
         <v>2013</v>
       </c>
       <c r="C5">
-        <v>650103</v>
+        <v>210105</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>16</v>
@@ -1269,11 +1256,8 @@
       <c r="AG5" s="8">
         <v>0</v>
       </c>
-      <c r="AH5" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34">
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" s="6">
         <v>1602001005</v>
       </c>
@@ -1281,7 +1265,7 @@
         <v>2013</v>
       </c>
       <c r="C6">
-        <v>650104</v>
+        <v>210106</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>16</v>
@@ -1373,11 +1357,8 @@
       <c r="AG6" s="11">
         <v>0</v>
       </c>
-      <c r="AH6" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34">
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7" s="6">
         <v>1602001006</v>
       </c>
@@ -1385,7 +1366,7 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>650105</v>
+        <v>210101</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>16</v>
@@ -1477,12 +1458,9 @@
       <c r="AG7" s="8">
         <v>0</v>
       </c>
-      <c r="AH7" s="9" t="s">
-        <v>36</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="C2:AA92">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:AA92">
     <sortCondition ref="C2:C92"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1493,15 +1471,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M14"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="15" max="15" width="27.1015625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
@@ -1518,7 +1499,7 @@
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -1533,7 +1514,7 @@
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -1548,7 +1529,7 @@
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -1563,7 +1544,7 @@
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -1577,8 +1558,11 @@
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="O5" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -1592,8 +1576,11 @@
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="O6" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -1607,8 +1594,11 @@
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="O7" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -1622,8 +1612,11 @@
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="O8" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -1637,8 +1630,11 @@
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="O9" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -1652,8 +1648,11 @@
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="O10" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -1667,8 +1666,11 @@
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="O11" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -1683,7 +1685,7 @@
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -1698,7 +1700,7 @@
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -1721,17 +1723,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>